--- a/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
@@ -16,6 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEST_ITEM!$B$4:$Q$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TEST_DATA!$A$1:$E$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">TEST_ITEM!$A$1:$R$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TEST_SPEC!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TEST_TARGET!$A$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="128">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -566,22 +567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　mov F, r20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　mov G, r21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　mov H, r22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　mov J, r24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　add r20, r21</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -704,22 +689,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TestTargetFunc</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -749,10 +718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期待値1</t>
     <rPh sb="0" eb="3">
       <t>キタイチ</t>
@@ -760,14 +725,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト対象機能</t>
     <rPh sb="3" eb="5">
       <t>タイショウ</t>
@@ -804,6 +761,29 @@
   </si>
   <si>
     <t>TestTargetFuncOutput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7FFFFFFE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　mov &lt;reg1&gt;, r20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　mov &lt;reg2&gt;, r21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　mov &lt;期待値1&gt;, r22</t>
+    <rPh sb="6" eb="9">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　mov &lt;期待値2&gt;, r24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1461,7 +1441,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1478,10 +1458,10 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -1504,7 +1484,7 @@
     </row>
     <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>66</v>
@@ -1521,19 +1501,19 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" s="27"/>
     </row>
@@ -1551,39 +1531,39 @@
     </row>
     <row r="8" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>116</v>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -1609,45 +1589,45 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="4">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>118</v>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>121</v>
-      </c>
       <c r="F14" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -1659,13 +1639,13 @@
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>59</v>
@@ -1673,7 +1653,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>74</v>
@@ -1684,17 +1664,17 @@
       <c r="E16" s="4">
         <v>81</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>127</v>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1699,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1728,7 +1708,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="205" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1763,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>76</v>
@@ -1774,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>77</v>
@@ -1807,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>77</v>
@@ -1824,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>79</v>
@@ -1838,12 +1818,12 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>65</v>
@@ -1854,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
@@ -1862,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -1870,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1878,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -1898,7 +1878,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1908,7 +1888,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1936,7 +1916,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1946,7 +1926,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1974,7 +1954,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2002,7 +1982,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2020,7 +2000,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2030,10 +2010,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2042,7 +2022,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2060,10 +2040,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2072,7 +2052,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2091,7 +2071,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="1048575" man="1"/>
   </colBreaks>
@@ -2613,7 +2593,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2625,7 +2605,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3455,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3974,7 +3954,7 @@
         <v>80000000</v>
       </c>
       <c r="H26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(E26)+HEX2DEC(F26))</f>
         <v>80000000</v>
       </c>
       <c r="I26" s="7" t="str">

--- a/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
@@ -1441,7 +1441,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1674,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1708,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="205" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2602,10 +2602,10 @@
   <dimension ref="B2:R91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="130">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -784,6 +784,17 @@
   </si>
   <si>
     <t>　mov &lt;期待値2&gt;, r24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト関数名</t>
+    <rPh sb="3" eb="6">
+      <t>カンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1032,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,6 +1112,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1441,7 +1455,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1457,28 +1471,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="23"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1496,32 +1514,35 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="13" t="s">
         <v>70</v>
       </c>
@@ -1550,30 +1571,30 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="13" t="s">
         <v>80</v>
       </c>
@@ -1614,30 +1635,30 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1" t="s">
         <v>114</v>
       </c>
@@ -1679,23 +1700,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,40 +2652,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="28"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="9" t="s">
         <v>45</v>
       </c>
@@ -2674,20 +2695,20 @@
       <c r="I3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>

--- a/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/add/TEST_ADD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SPEC" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="132">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -795,6 +795,14 @@
   </si>
   <si>
     <t>add1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFFFFFFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFFFFFFD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1454,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2622,11 +2630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5614,7 +5622,7 @@
         <v>32</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H55" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5622,7 +5630,7 @@
       </c>
       <c r="I55" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>A</v>
       </c>
       <c r="J55" s="8">
         <v>0</v>
@@ -5643,14 +5651,14 @@
         <v>0</v>
       </c>
       <c r="P55" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="8">
         <v>0</v>
       </c>
       <c r="R55" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>00001000</v>
+        <v>00001010</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.15">
@@ -5670,7 +5678,7 @@
         <v>33</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="H56" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5678,7 +5686,7 @@
       </c>
       <c r="I56" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>A</v>
       </c>
       <c r="J56" s="8">
         <v>0</v>
@@ -5699,14 +5707,14 @@
         <v>0</v>
       </c>
       <c r="P56" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="8">
         <v>0</v>
       </c>
       <c r="R56" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>00001000</v>
+        <v>00001010</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.15">
